--- a/biology/Microbiologie/Rhabdonellidae/Rhabdonellidae.xlsx
+++ b/biology/Microbiologie/Rhabdonellidae/Rhabdonellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rhabdonellidae sont une famille de Ciliés de la classe des Oligotrichea et de l’ordre des Choreotrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Rhabdonella, dérivé du grec ράβδος / rabdos, bâton ou verge, et du suffixe -ella, petite, littéralement « petite verge », en référence à la forme de la lorica (loge) de cet organisme. 
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,6 +585,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,9 +612,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 octobre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 octobre 2022) :
 Epirhabdonella Kofoid &amp; Campbell, 1929
 Protorhabdonella Jörgensen, 1924
 Rhabdonella Brandt, 1906  genre type
@@ -629,9 +649,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Rhabdonellidae Kofoid &amp; Campbell, 1929[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Rhabdonellidae Kofoid &amp; Campbell, 1929.
 </t>
         </is>
       </c>
